--- a/decisions/notgrapefruit2019_5test_tweak.xlsx
+++ b/decisions/notgrapefruit2019_5test_tweak.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="basic_info" sheetId="1" r:id="rId1"/>
@@ -1177,10 +1177,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1511,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="14">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>11</v>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="G51" s="16">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="H51" s="18" t="str">
         <f t="shared" si="4"/>
@@ -6814,7 +6814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D35" sqref="D35:O35"/>
     </sheetView>
   </sheetViews>
